--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-08_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-08_beg.xlsx
@@ -1608,7 +1608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]   ... "O Light of Kazimierz, the Radiant Knight offers her body to thee..."
+    <t xml:space="preserve">[name="Nearl"]   ... 'O Light of Kazimierz, the Radiant Knight offers her body to thee...'
 </t>
   </si>
   <si>
@@ -1736,7 +1736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="니어"]   아미야와 {@nickname} 박사, 그리고 의료팀을 안전하게 퇴각시켜라!
+    <t xml:space="preserve">[name="니어"]   아미야와 {@nickname} 박사, 그리고 의료부를 안전하게 퇴각시켜라!
 </t>
   </si>
   <si>
